--- a/[Document]/Target_Keywords.xlsx
+++ b/[Document]/Target_Keywords.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EC72D3-B967-4A5C-9760-EE9883B03FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851F98A0-CF2F-4119-8D37-6B1FFA10066C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="67">
   <si>
     <t>분야</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +296,6 @@
   </si>
   <si>
     <t>경제+사회+문화+국제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,10 +354,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -676,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -688,10 +683,9 @@
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,11 +698,8 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -721,12 +712,8 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="str">
-        <f>"'"&amp;D2&amp;"',"</f>
-        <v>'고령화',</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -739,12 +726,8 @@
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E40" si="0">"'"&amp;D3&amp;"',"</f>
-        <v>'노인+부양',</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -757,12 +740,8 @@
       <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'세대+갈등',</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -775,12 +754,8 @@
       <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+의료',</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
@@ -793,12 +768,8 @@
       <c r="D6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+경제적+자립',</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -811,12 +782,8 @@
       <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+빈곤',</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -829,12 +796,8 @@
       <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+사회보장',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -847,12 +810,8 @@
       <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+우울증',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -865,12 +824,8 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'망각',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -883,12 +838,8 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'독거노인',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
@@ -901,12 +852,8 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노화',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>66</v>
       </c>
@@ -919,12 +866,8 @@
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'소회',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
@@ -937,12 +880,8 @@
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'고령사회',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -955,12 +894,8 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+주택+문제',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -973,12 +908,8 @@
       <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'재취업',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -991,12 +922,8 @@
       <c r="D17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'세대+가족',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -1009,12 +936,8 @@
       <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+가족',</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1027,12 +950,8 @@
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'안락사',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1045,12 +964,8 @@
       <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+사고',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1063,12 +978,8 @@
       <c r="D21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+건강',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -1081,12 +992,8 @@
       <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'복지시설',</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1099,12 +1006,8 @@
       <c r="D23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+질병',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -1117,12 +1020,8 @@
       <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'은퇴+연령',</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1135,12 +1034,8 @@
       <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인대상+범죄',</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>66</v>
       </c>
@@ -1153,12 +1048,8 @@
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+복지',</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1171,12 +1062,8 @@
       <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노후',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1189,12 +1076,8 @@
       <c r="D28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'알츠하이머',</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
@@ -1207,12 +1090,8 @@
       <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+혐오',</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
@@ -1225,12 +1104,8 @@
       <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'돌봄서비스',</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1243,12 +1118,8 @@
       <c r="D31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+봉사',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1261,12 +1132,8 @@
       <c r="D32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+부모님',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1279,12 +1146,8 @@
       <c r="D33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'100세',</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1297,12 +1160,8 @@
       <c r="D34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'파킨슨',</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1315,12 +1174,8 @@
       <c r="D35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'노인+연금',</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -1333,12 +1188,8 @@
       <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'거주환경',</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
@@ -1351,12 +1202,8 @@
       <c r="D37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'문화지원',</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>66</v>
       </c>
@@ -1369,12 +1216,8 @@
       <c r="D38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'실버산업',</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1387,12 +1230,8 @@
       <c r="D39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'치매',</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>66</v>
       </c>
@@ -1404,10 +1243,6 @@
       </c>
       <c r="D40" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>'연령+통합',</v>
       </c>
     </row>
   </sheetData>
